--- a/spreadsheet/macrofree/appsvc_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/appsvc_checklist.ko.xlsx
@@ -1069,10 +1069,14 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>모범 사례는 기준 고가용성 영역 중복 웹 애플리케이션 아키텍처를 참조하세요.</t>
-        </is>
-      </c>
-      <c r="D8" s="21" t="n"/>
+          <t>기준 고가용성 영역 중복 웹 응용 프로그램 아키텍처를 구현합니다. 영역 중복 지원을 위해 Azure App Service가 프리미엄 V2/V3 또는 격리 v2 계층에 있는지 확인합니다.</t>
+        </is>
+      </c>
+      <c r="D8" s="21" t="inlineStr">
+        <is>
+          <t>영역 중복을 활용하여 영역 수준 오류 발생 시 고가용성을 보장합니다. 영역 중복 배포를 지원하고 재해 발생 시 가동 중지 시간을 최소화하는 프리미엄 V2/V3 또는 격리 v2 계층을 사용합니다.</t>
+        </is>
+      </c>
       <c r="E8" s="21" t="inlineStr">
         <is>
           <t>낮다</t>
@@ -1086,7 +1090,7 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/reference-architectures/app-service-web-app/zone-redundant?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/app-service-web-app/zone-redundant?source=recommendations</t>
         </is>
       </c>
       <c r="I8" s="15" t="n"/>
@@ -1115,10 +1119,14 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>프리미엄 및 표준 계층을 사용합니다. 이러한 계층은 스테이징 슬롯 및 자동 백업을 지원합니다.</t>
-        </is>
-      </c>
-      <c r="D9" s="21" t="n"/>
+          <t>프리미엄 및 표준 계층을 스테이징 슬롯 및 자동화된 백업에 사용합니다. 백업 보존 기간을 재해 복구 요구 사항에 맞게 조정합니다.</t>
+        </is>
+      </c>
+      <c r="D9" s="21" t="inlineStr">
+        <is>
+          <t>다운타임이 없는 배포와 자동화된 백업을 위한 스테이징 슬롯을 활용하여 재해 복구를 보장합니다. 슬롯 수 및 재해 복구 요구 사항에 따라 적절한 계층(표준 또는 프리미엄)을 선택합니다.</t>
+        </is>
+      </c>
       <c r="E9" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -1132,7 +1140,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/app-service/overview-hosting-plans</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-hosting-plans</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1161,10 +1169,14 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>지역적으로 적용 가능한 경우 가용성 영역 활용(프리미엄 v2 또는 v3 계층 필요)</t>
-        </is>
-      </c>
-      <c r="D10" s="21" t="n"/>
+          <t>지역적으로 적용 가능한 경우 가용성 영역을 활용합니다(프리미엄 V2/V3 계층 필요). 가용성 영역에 대한 지역 지원을 확인합니다.</t>
+        </is>
+      </c>
+      <c r="D10" s="21" t="inlineStr">
+        <is>
+          <t>가용성 영역은 한 지역의 데이터 센터 간에 물리적 격리를 제공하여 중단 중 가동 중지 시간을 줄입니다. 지역이 가용성 영역을 지원하고 영역 중복 배포에 프리미엄 V2/V3 계층을 사용하는지 확인합니다.</t>
+        </is>
+      </c>
       <c r="E10" s="21" t="inlineStr">
         <is>
           <t>높다</t>
@@ -1178,7 +1190,7 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/reliability/migrate-app-service</t>
+          <t>https://learn.microsoft.com/azure/reliability/migrate-app-service</t>
         </is>
       </c>
       <c r="I10" s="15" t="n"/>
@@ -1207,10 +1219,14 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>상태 확인 구현</t>
-        </is>
-      </c>
-      <c r="D11" s="21" t="n"/>
+          <t>상태 검사를 구현하여 App Service 인스턴스와 관련된 문제를 모니터링하고 감지합니다. 상태 확인은 장애 시 자동 인스턴스 교체를 활성화합니다.</t>
+        </is>
+      </c>
+      <c r="D11" s="21" t="inlineStr">
+        <is>
+          <t>상태 확인을 활성화하여 비정상 인스턴스를 실시간으로 감지하고 자동으로 교체하여 고가용성과 애플리케이션 안정성을 유지할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E11" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -1224,7 +1240,7 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/app-service/monitor-instances-health-check</t>
+          <t>https://learn.microsoft.com/azure/app-service/monitor-instances-health-check</t>
         </is>
       </c>
       <c r="I11" s="15" t="n"/>
@@ -1253,10 +1269,14 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Azure App Service에 대한 백업 및 복원 모범 사례를 참조하세요.</t>
-        </is>
-      </c>
-      <c r="D12" s="21" t="n"/>
+          <t>Azure App Service 및 ASE(App Service Environment)에 대한 백업 및 복원 모범 사례를 참조하여 데이터 가용성 및 복구를 보장합니다.</t>
+        </is>
+      </c>
+      <c r="D12" s="21" t="inlineStr">
+        <is>
+          <t>Azure App Service 및 ASE에서 백업 및 복원을 구성하는 모범 사례에 따라 재해 시나리오 중에 데이터 가용성을 보장하고 복구를 보장합니다.</t>
+        </is>
+      </c>
       <c r="E12" s="21" t="inlineStr">
         <is>
           <t>높다</t>
@@ -1270,7 +1290,7 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/app-service/manage-backup</t>
+          <t>https://learn.microsoft.com/azure/app-service/manage-backup</t>
         </is>
       </c>
       <c r="I12" s="15" t="n"/>
@@ -1299,10 +1319,14 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Azure App Service 안정성 모범 사례 구현</t>
-        </is>
-      </c>
-      <c r="D13" s="21" t="n"/>
+          <t>자동 크기 조정, 내결함성, 상태 검사 및 영역 중복을 포함한 Azure App Service 안정성 모범 사례를 구현합니다.</t>
+        </is>
+      </c>
+      <c r="D13" s="21" t="inlineStr">
+        <is>
+          <t>크기 조정, 내결함성, 모니터링 및 영역 중복성을 App Service 아키텍처에 통합하여 고가용성을 보장합니다. 상태 확인 및 가용 영역을 활용하여 가동 시간을 유지합니다.</t>
+        </is>
+      </c>
       <c r="E13" s="21" t="inlineStr">
         <is>
           <t>높다</t>
@@ -1316,7 +1340,7 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/framework/services/compute/azure-app-service/reliability</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/compute/azure-app-service/reliability</t>
         </is>
       </c>
       <c r="I13" s="15" t="n"/>
@@ -1345,10 +1369,14 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>App Service 앱을 다른 지역으로 이동하는 방법을 숙지합니다. 재해가 발생하는 동안</t>
-        </is>
-      </c>
-      <c r="D14" s="21" t="n"/>
+          <t>액티브-액티브 및 액티브-패시브 구성, 자동화된 장애 조치(failover) 및 IaC 배포를 포함한 App Service 지역 장애 조치(failover)를 숙지합니다.</t>
+        </is>
+      </c>
+      <c r="D14" s="21" t="inlineStr">
+        <is>
+          <t>지역 장애 조치(failover) 전략을 구현하여 재해 복구를 준비합니다. 액티브-액티브 및 액티브-패시브 구성, 자동화된 페일오버, IaC(Infrastructure as Code)를 활용하여 가동 중단 시 원활한 페일오버를 수행할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E14" s="21" t="inlineStr">
         <is>
           <t>낮다</t>
@@ -1362,7 +1390,7 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/app-service/manage-disaster-recovery#recover-app-content-only</t>
+          <t>https://learn.microsoft.com/azure/app-service/manage-disaster-recovery#recover-app-content-only</t>
         </is>
       </c>
       <c r="I14" s="15" t="n"/>
@@ -1391,10 +1419,14 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Azure App Service의 안정성 지원 숙지</t>
-        </is>
-      </c>
-      <c r="D15" s="21" t="n"/>
+          <t>크기 조정 옵션, SLA 및 자동화된 복구 메커니즘을 포함한 Azure App Service의 안정성 지원을 숙지합니다.</t>
+        </is>
+      </c>
+      <c r="D15" s="21" t="inlineStr">
+        <is>
+          <t>Azure App Service는 크기 조정, 내결함성 및 SLA(서비스 수준 계약)를 비롯한 기본 제공 안정성 기능을 제공합니다. 이러한 기능을 활용하여 가동 중단 중에도 일관된 성능을 유지할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E15" s="21" t="inlineStr">
         <is>
           <t>높다</t>
@@ -1408,7 +1440,7 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/reliability/reliability-app-service</t>
+          <t>https://learn.microsoft.com/azure/reliability/reliability-app-service</t>
         </is>
       </c>
       <c r="I15" s="15" t="n"/>
@@ -1437,10 +1469,14 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>App Service 계획에서 실행되는 Function Apps에 대해 "Always On"이 사용하도록 설정되어 있는지 확인합니다.</t>
-        </is>
-      </c>
-      <c r="D16" s="21" t="n"/>
+          <t>유휴 상태를 방지하고 지속적인 가용성을 보장하기 위해 App Service 계획에서 실행되는 Function Apps에 대해 'Always On'을 사용하도록 설정해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D16" s="21" t="inlineStr">
+        <is>
+          <t>Function Apps에 대해 'Always On'을 사용하도록 설정하면 앱이 유휴 상태가 되지 않고 항상 가용성과 응답성을 유지할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E16" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -1454,7 +1490,7 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-functions/dedicated-plan#always-on</t>
+          <t>https://learn.microsoft.com/azure/azure-functions/dedicated-plan#always-on</t>
         </is>
       </c>
       <c r="I16" s="15" t="n"/>
@@ -1483,10 +1519,14 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>상태 검사를 사용하여 App Service 인스턴스 모니터링Monitor App Service instances using Health checks</t>
-        </is>
-      </c>
-      <c r="D17" s="21" t="n"/>
+          <t>상태 검사를 사용하여 App Service 인스턴스를 모니터링하여 비정상 인스턴스를 감지하고 자동으로 교체합니다.</t>
+        </is>
+      </c>
+      <c r="D17" s="21" t="inlineStr">
+        <is>
+          <t>상태 검사는 App Service 인스턴스의 상태를 모니터링하여 비정상 인스턴스를 자동으로 교체하여 고가용성을 유지할 수 있도록 합니다.</t>
+        </is>
+      </c>
       <c r="E17" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -1500,7 +1540,7 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/app-service/monitor-instances-health-check</t>
+          <t>https://learn.microsoft.com/azure/app-service/monitor-instances-health-check</t>
         </is>
       </c>
       <c r="I17" s="15" t="n"/>
@@ -1524,15 +1564,19 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>고가용성</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Application Insights 가용성 테스트를 사용하여 웹앱 또는 웹 사이트의 가용성 및 응답성 모니터링</t>
-        </is>
-      </c>
-      <c r="D18" s="21" t="n"/>
+          <t>사용자 지정 규칙과 함께 자동 복구를 사용하여 오류가 발생할 때 App Service 인스턴스를 자동으로 다시 시작합니다.</t>
+        </is>
+      </c>
+      <c r="D18" s="21" t="inlineStr">
+        <is>
+          <t>Azure App Service의 자동 복구를 활용하여 메모리 임계값, HTTP 오류 또는 특정 이벤트 로그와 같은 미리 정의된 오류 조건에 따라 인스턴스를 자동으로 다시 시작하거나 사용자 지정 작업을 트리거합니다.</t>
+        </is>
+      </c>
       <c r="E18" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -1546,7 +1590,7 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/app/availability-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-diagnostics</t>
         </is>
       </c>
       <c r="I18" s="15" t="n"/>
@@ -1554,7 +1598,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>c7d3e5f9-a19c-4833-8ca6-1dcb0128e129</t>
+          <t>60b3a935-33e5-45c9-87c7-53882e395b46</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1575,13 +1619,13 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Application Insights 표준 테스트를 사용하여 웹앱 또는 웹 사이트의 가용성 및 응답성 모니터링</t>
+          <t>Application Insights 가용성 테스트를 사용하여 웹앱 또는 웹 사이트의 가용성 및 응답성을 모니터링하여 성능 문제 및 가동 중지 시간을 사전에 감지합니다.</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1592,7 +1636,7 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/app/availability-standard-tests</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/app/availability-overview</t>
         </is>
       </c>
       <c r="I19" s="15" t="n"/>
@@ -1600,7 +1644,7 @@
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>b4e3f2d5-a5c6-4d7e-8b2f-c5d9e7a8f0ea</t>
+          <t>c7d3e5f9-a19c-4833-8ca6-1dcb0128e129</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1611,27 +1655,23 @@
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>데이터 보호</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Key Vault를 사용하여 비밀 저장</t>
-        </is>
-      </c>
-      <c r="D20" s="21" t="inlineStr">
-        <is>
-          <t>Azure Key Vault를 사용하여 애플리케이션에 필요한 모든 비밀을 저장합니다.  Key Vault는 비밀을 저장하기 위한 안전하고 감사된 환경을 제공하며 Key Vault SDK 또는 App Service Key Vault 참조를 통해 App Service와 잘 통합됩니다.</t>
-        </is>
-      </c>
+          <t>Application Insights 표준 테스트를 사용하여 웹앱 또는 웹 사이트의 가용성 및 응답성 모니터링</t>
+        </is>
+      </c>
+      <c r="D20" s="21" t="n"/>
       <c r="E20" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1642,7 +1682,7 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/app-service-key-vault-references</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/app/availability-standard-tests</t>
         </is>
       </c>
       <c r="I20" s="15" t="n"/>
@@ -1650,7 +1690,7 @@
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>834ac932-223e-4ce8-8b12-3071a5416415</t>
+          <t>b4e3f2d5-a5c6-4d7e-8b2f-c5d9e7a8f0ea</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1661,27 +1701,27 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>데이터 보호</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>관리 ID를 사용하여 Key Vault에 연결</t>
+          <t>응답 시간 및 실패율과 같은 중요한 Application Insights 메트릭에 대한 경고를 설정합니다.</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>관리 ID를 사용하여 Key Vault SDK를 사용하거나 App Service Key Vault 참조를 통해 Key Vault에 연결합니다.</t>
+          <t>응답 시간, 실패율 및 전반적인 가용성에 대한 Application Insights 메트릭을 기반으로 Azure Monitor 경고를 구성합니다. 경고는 문제를 사전에 감지하고 평균 복구 시간(MTTR)을 줄이는 데 도움이 됩니다.</t>
         </is>
       </c>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1692,7 +1732,7 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/app-service-key-vault-references</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/app/alerts</t>
         </is>
       </c>
       <c r="I21" s="15" t="n"/>
@@ -1700,7 +1740,7 @@
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>833ea3ad-2c2d-4e73-8165-c3acbef4abe1</t>
+          <t>e52e4514-02a7-4e81-a98e-88ce1b18e557</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1721,12 +1761,12 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Key Vault를 사용하여 TLS 인증서를 저장합니다.</t>
+          <t>Azure Key Vault를 사용하여 애플리케이션에 필요한 비밀을 저장합니다. Key Vault는 비밀을 저장하기 위한 안전, 관리 및 감사 환경을 제공하며, 보안 강화를 위해 App Service Key Vault 참조를 통해 App Service와 원활하게 통합됩니다.</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>App Service TLS 인증서를 Key Vault에 저장합니다.</t>
+          <t>Azure Key Vault는 비밀이 암호화되고, 안전하게 저장되고, 권한 있는 애플리케이션에서만 액세스되도록 합니다. 감사 로깅 및 비밀 버전 관리를 지원하고 중요한 정보가 실수로 노출될 위험을 줄입니다.</t>
         </is>
       </c>
       <c r="E22" s="21" t="inlineStr">
@@ -1742,7 +1782,7 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/configure-ssl-certificate</t>
+          <t>https://learn.microsoft.com/azure/app-service/app-service-key-vault-references</t>
         </is>
       </c>
       <c r="I22" s="15" t="n"/>
@@ -1750,7 +1790,7 @@
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>f8d39fda-4776-4831-9c11-5775c2ea55b4</t>
+          <t>834ac932-223e-4ce8-8b12-3071a5416415</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1771,17 +1811,17 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>민감한 정보를 처리하는 시스템 격리</t>
+          <t>관리 ID를 사용하여 App Service Key Vault 참조를 통해 비밀에 액세스하기 위해 Azure Key Vault에 안전하게 연결합니다.</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>중요한 정보를 처리하는 시스템은 격리해야 합니다.  이렇게 하려면 별도의 App Service 계획 또는 App Service Environment를 사용하고 다른 구독 또는 관리 그룹을 사용하는 것이 좋습니다.</t>
+          <t>관리 ID를 사용하면 App Service가 Azure Key Vault에 안전하게 인증할 수 있으므로 하드 코딩된 자격 증명이 필요하지 않습니다. 이렇게 하면 자격 증명 노출 위험이 줄어들고 보안 강화를 위해 비밀 관리가 간소화됩니다.</t>
         </is>
       </c>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1792,7 +1832,7 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/overview-hosting-plans</t>
+          <t>https://learn.microsoft.com/azure/app-service/app-service-key-vault-references</t>
         </is>
       </c>
       <c r="I23" s="15" t="n"/>
@@ -1800,7 +1840,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>6ad48408-ee72-4734-a475-ba18fdbf590c</t>
+          <t>833ea3ad-2c2d-4e73-8165-c3acbef4abe1</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1821,17 +1861,17 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>로컬 디스크에 중요한 데이터를 저장하지 마십시오.</t>
+          <t>Azure Key Vault를 사용하여 App Service에 대한 TLS 인증서를 안전하게 저장하고 관리합니다.</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>App Service의 로컬 디스크는 암호화되지 않으며 중요한 데이터를 저장해서는 안 됩니다.  (예: D:\\Local and %TMP%).</t>
+          <t>Azure Key Vault에 TLS 인증서를 저장하면 인증서의 중앙 집중식 보안 관리 및 자동 갱신을 제공하여 보안을 강화할 수 있습니다. 이렇게 하면 수동 처리 오류 및 인증서 만료의 위험을 줄일 수 있습니다.</t>
         </is>
       </c>
       <c r="E24" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1842,7 +1882,7 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/operating-system-functionality#file-access</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-ssl-certificate</t>
         </is>
       </c>
       <c r="I24" s="15" t="n"/>
@@ -1850,7 +1890,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>e65de8e0-3f9b-4cbd-9682-66abca264f9a</t>
+          <t>f8d39fda-4776-4831-9c11-5775c2ea55b4</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1866,17 +1906,17 @@
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스 제어Identity and Access Control</t>
+          <t>데이터 보호</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>인증에 설정된 ID 공급자 사용</t>
+          <t>별도의 앱 서비스 계획, ASE(앱 서비스 환경)를 사용하여 중요한 정보를 처리하는 시스템을 격리하고 보안 강화를 위해 다른 구독 또는 관리 그룹을 고려합니다.</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t>인증된 웹 애플리케이션의 경우 Azure AD 또는 Azure AD B2C와 같이 잘 설정된 ID 공급자를 사용합니다.  선택한 애플리케이션 프레임워크를 활용하여 이 공급자와 통합하거나 App Service 인증/권한 부여 기능을 사용합니다.</t>
+          <t>노출을 최소화하고 보안을 강화하려면 민감한 데이터를 처리하는 시스템을 격리합니다. 격리를 위해 별도의 App Service 계획 또는 App Service Environment를 활용하고, 다른 구독 또는 관리 그룹을 사용하여 더 엄격한 경계와 거버넌스를 적용합니다.</t>
         </is>
       </c>
       <c r="E25" s="21" t="inlineStr">
@@ -1892,7 +1932,7 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/overview-authentication-authorization</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-hosting-plans</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -1900,7 +1940,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>919ca0b2-c121-459e-814b-933df574eccc</t>
+          <t>6ad48408-ee72-4734-a475-ba18fdbf590c</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1916,22 +1956,22 @@
       </c>
       <c r="B26" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스 제어Identity and Access Control</t>
+          <t>데이터 보호</t>
         </is>
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>신뢰할 수 있는 환경에서 배포</t>
+          <t>로컬 디스크에 중요한 데이터를 저장하지 마십시오.</t>
         </is>
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t>잘 관리되고 안전한 DevOps 배포 파이프라인과 같이 제어되고 신뢰할 수 있는 환경에서 App Service에 코드를 배포합니다. 이렇게 하면 버전이 제어되지 않고 악성 호스트에서 배포되는 것으로 확인되지 않은 코드를 방지할 수 있습니다.</t>
+          <t>App Service의 로컬 디스크는 암호화되지 않으며 중요한 데이터를 로컬 디스크에 저장해서는 안 됩니다.  (예: D:\\Local 및 %TMP%).</t>
         </is>
       </c>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1942,7 +1982,7 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/deploy-best-practices</t>
+          <t>https://learn.microsoft.com/azure/app-service/operating-system-functionality#file-access</t>
         </is>
       </c>
       <c r="I26" s="15" t="n"/>
@@ -1950,7 +1990,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>3f9bcbd4-6826-46ab-aa26-4f9a19aed9c5</t>
+          <t>e65de8e0-3f9b-4cbd-9682-66abca264f9a</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1971,17 +2011,17 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>기본 인증 사용 안 함</t>
+          <t>보안 인증 및 SSO(Single Sign-On)에 Microsoft Entra ID 또는 B2C를 사용합니다.</t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>FTP/FTPS 및 WebDeploy/SCM 모두에 대한 기본 인증을 사용 안함으로 설정합니다.  이렇게 하면 이러한 서비스에 대한 액세스가 비활성화되고 배포에 Azure AD 보안 엔드포인트가 사용됩니다.  SCM 사이트는 Azure AD 자격 증명을 사용하여 열 수도 있습니다.</t>
+          <t>애플리케이션 간에 보안 사용자 인증 및 SSO(Single Sign-On)를 위해 Microsoft Entra ID 또는 B2C를 사용합니다. OpenID Connect와 같은 최신 인증 프로토콜로 보안 및 규정 준수를 간소화하기 위해 기본 제공 App Service 인증/권한 부여 기능을 사용하여 통합합니다.</t>
         </is>
       </c>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1992,14 +2032,14 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/deploy-configure-credentials#disable-basic-authentication</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-authentication-authorization</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>5d04c2c3-919c-4a0b-8c12-159e114b933d</t>
+          <t>919ca0b2-c121-459e-814b-933df574eccc</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2020,12 +2060,12 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>관리 ID를 사용하여 리소스에 연결</t>
+          <t>신뢰할 수 있고 안전한 환경에서 App Service에 코드를 배포합니다.</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>가능한 경우 관리 ID를 사용하여 Azure AD 보안 리소스에 연결합니다.  이렇게 할 수 없는 경우 Key Vault에 비밀을 저장하고 대신 관리 ID를 사용하여 Key Vault에 연결합니다.</t>
+          <t>App Service에 대한 모든 코드 배포가 잘 관리되는 DevOps 파이프라인과 같은 제어되고 안전한 환경에서 시작되는지 확인합니다. 이 방법은 버전 제어, 코드 확인 및 보안 호스팅을 적용하여 무단 또는 악성 코드 배포의 위험을 완화합니다.</t>
         </is>
       </c>
       <c r="E28" s="21" t="inlineStr">
@@ -2041,14 +2081,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/overview-managed-identity?tabs=portal%2Chttp</t>
+          <t>https://learn.microsoft.com/azure/app-service/deploy-best-practices</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>f574eccc-d9bd-43ba-bcda-3b54eb2eb03d</t>
+          <t>3f9bcbd4-6826-46ab-aa26-4f9a19aed9c5</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2069,12 +2109,12 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>관리 ID를 사용하여 컨테이너 끌어오기</t>
+          <t>FTP/FTPS 및 WebDeploy/SCM에 대한 기본 인증을 비활성화합니다.</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>Azure Container Registry에 저장된 이미지를 사용하는 경우 관리 ID를 사용하여 끌어옵니다.</t>
+          <t>배포를 위해 Microsoft Entra ID 보안 엔드포인트를 적용하여 보안을 강화하기 위해 FTP/FTPS 및 WebDeploy/SCM에 대한 기본 인증을 사용하지 않도록 설정합니다. 이렇게 하면 Microsoft Entra ID 자격 증명을 사용하여 인증된 사용자만 SCM 사이트를 포함한 배포 서비스에 액세스할 수 있습니다.</t>
         </is>
       </c>
       <c r="E29" s="21" t="inlineStr">
@@ -2090,14 +2130,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/configure-custom-container#use-managed-identity-to-pull-image-from-azure-container-registry</t>
+          <t>https://learn.microsoft.com/azure/app-service/deploy-configure-credentials#disable-basic-authentication</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>d9a25827-18d2-4ddb-8072-5769ee6691a4</t>
+          <t>5d04c2c3-919c-4a0b-8c12-159e114b933d</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2113,22 +2153,22 @@
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>로깅 및 모니터링</t>
+          <t>ID 및 액세스 제어Identity and Access Control</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Log Analytics에 App Service 런타임 로그 보내기Send App Service runtime logs to Log Analytics</t>
+          <t>관리 ID를 사용하여 Microsoft Entra ID 보안 리소스에 연결합니다.</t>
         </is>
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t>App Service의 진단 설정을 구성하면 모든 원격 분석을 로깅 및 모니터링의 중앙 대상으로 Log Analytics에 보낼 수 있습니다. 이를 통해 HTTP 로그, 애플리케이션 로그, 플랫폼 로그 등과 같은 App Service의 런타임 활동을 모니터링할 수 있습니다.</t>
+          <t>가능한 경우 관리 ID를 사용하여 자격 증명을 저장하지 않고 Microsoft Entra ID 보안 리소스에 안전하게 연결합니다. 이것이 가능하지 않은 경우 Azure Key Vault에 비밀을 저장하고 관리 ID를 사용하여 액세스하여 보안을 유지하고 자격 증명 노출 위험을 줄입니다.</t>
         </is>
       </c>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2139,14 +2179,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/troubleshoot-diagnostic-logs</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-managed-identity?tabs=portal%2Chttp</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>47768314-c115-4775-a2ea-55b46ad48408</t>
+          <t>f574eccc-d9bd-43ba-bcda-3b54eb2eb03d</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2162,22 +2202,22 @@
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>로깅 및 모니터링</t>
+          <t>ID 및 액세스 제어Identity and Access Control</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Log Analytics에 App Service 활동 로그 보내기Send App Service activity logs to Log Analytics</t>
+          <t>관리 ID를 사용하여 Azure Container Registry에서 컨테이너 이미지를 끌어옵니다.</t>
         </is>
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>활동 로그를 Log Analytics에 로깅 및 모니터링의 중앙 대상으로 보내도록 진단 설정을 지정합니다. 이렇게 하면 App Service 리소스 자체에서 컨트롤 플레인 작업을 모니터링할 수 있습니다.</t>
+          <t>Azure Container Registry에 저장된 이미지를 사용하는 경우 자격 증명을 저장하지 않도록 관리 ID를 사용하여 이러한 이미지를 끌어옵니다. 이렇게 하면 컨테이너 이미지에 대한 보안 액세스가 보장되고 자격 증명 노출 위험이 줄어듭니다.</t>
         </is>
       </c>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2188,14 +2228,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/essentials/activity-log</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-custom-container#use-managed-identity-to-pull-image-from-azure-container-registry</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>ee72734b-475b-4a18-bdbf-590ce65de8e0</t>
+          <t>d9a25827-18d2-4ddb-8072-5769ee6691a4</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2211,17 +2251,17 @@
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>네트워크 보안</t>
+          <t>로깅 및 모니터링</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>아웃바운드 네트워크 액세스를 제어해야 함</t>
+          <t>중앙 집중식 모니터링 및 경고를 위해 App Service 런타임 및 보안 로그를 Log Analytics로 보냅니다.</t>
         </is>
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>지역 VNet 통합, 네트워크 보안 그룹 및 UDR의 조합을 사용하여 아웃바운드 네트워크 액세스를 제어합니다.  트래픽은 Azure Firewall과 같은 NVA로 라우팅되어야 합니다.  방화벽의 로그를 모니터링해야 합니다.</t>
+          <t>원격 분석 및 보안 로그(HTTP, 플랫폼 및 감사 로그 포함)를 Log Analytics로 보내도록 진단 설정을 구성합니다. 중앙 집중식 로깅은 모니터링, 위협 탐지 및 규정 준수 보고를 향상시킵니다.</t>
         </is>
       </c>
       <c r="E32" s="21" t="inlineStr">
@@ -2237,7 +2277,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/overview-vnet-integration</t>
+          <t>https://learn.microsoft.com/azure/app-service/troubleshoot-diagnostic-logs</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2245,7 +2285,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>c12159e1-14b9-433d-b574-ecccd9bd3baf</t>
+          <t>47768314-c115-4775-a2ea-55b46ad48408</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2261,22 +2301,22 @@
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>네트워크 보안</t>
+          <t>로깅 및 모니터링</t>
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>인터넷 주소에 대한 아웃바운드 통신을 위한 안정적인 IP 보장</t>
+          <t>Log Analytics에 App Service 활동 로그 보내기Send App Service activity logs to Log Analytics</t>
         </is>
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t>VNet 통합을 사용하고 VNet NAT Gateway 또는 NVA와 같은 Azure Firewall을 사용하여 안정적인 아웃바운드 IP를 제공할 수 있습니다.  이렇게 하면 필요한 경우 수신 당사자가 IP를 기반으로 허용 목록을 만들 수 있습니다.  Azure 서비스에 대한 통신의 경우 IP 주소에 의존할 필요가 없는 경우가 많으며 서비스 엔드포인트와 같은 메커니즘을 대신 사용해야 합니다.  (또한 수신 끝에서 프라이빗 엔드포인트를 사용하면 SNAT가 발생하지 않고 안정적인 아웃바운드 IP 범위를 제공합니다.)</t>
+          <t>활동 로그를 로깅 및 모니터링의 중앙 대상으로 Log Analytics에 보내도록 진단 설정을 지정합니다. 이렇게 하면 App Service 리소스 자체에서 컨트롤 플레인 작업을 모니터링할 수 있습니다.</t>
         </is>
       </c>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2287,7 +2327,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking/nat-gateway-integration</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/essentials/activity-log</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2295,7 +2335,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>cda3b54e-b2eb-403d-b9a2-582718d2ddb1</t>
+          <t>ee72734b-475b-4a18-bdbf-590ce65de8e0</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2316,17 +2356,17 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>인바운드 네트워크 액세스를 제어해야 합니다.</t>
+          <t>VNet 통합, NSG, UDR 및 방화벽을 사용하여 App Service에 대한 아웃바운드 네트워크 액세스를 제어합니다.</t>
         </is>
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>App Service 액세스 제한, 서비스 엔드포인트 또는 프라이빗 엔드포인트의 조합을 사용하여 인바운드 네트워크 액세스를 제어합니다. 웹앱 자체 및 SCM 사이트에 대해 서로 다른 액세스 제한이 필요하고 구성될 수 있습니다.</t>
+          <t>지역 VNet 통합, NSG(네트워크 보안 그룹) 및 UDR(사용자 정의 경로)을 사용하여 아웃바운드 네트워크 액세스를 제어합니다. Azure Firewall과 같은 NVA(네트워크 가상 어플라이언스)를 통해 트래픽을 라우팅하고 방화벽 로그를 모니터링하여 트래픽이 적절하게 제어되고 안전한지 확인합니다.</t>
         </is>
       </c>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2337,7 +2377,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features#access-restrictions</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-vnet-integration</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2345,7 +2385,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>0725769e-e669-41a4-a34a-c932223ece80</t>
+          <t>c12159e1-14b9-433d-b574-ecccd9bd3baf</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2366,17 +2406,17 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>App Service 앞에서 WAF 사용Use a WAF in front of App Service</t>
+          <t>VNet NAT Gateway 또는 Azure Firewall을 사용하여 아웃바운드 통신을 위한 안정적인 IP를 보장합니다.</t>
         </is>
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>Application Gateway 또는 Azure Front Door와 같은 Web Application Firewall을 사용하여 악의적인 인바운드 트래픽으로부터 보호합니다.  WAF의 로그를 모니터링해야 합니다.</t>
+          <t>NAT Gateway 또는 Azure Firewall과 같은 NVA(네트워크 가상 어플라이언스)와 VNet 통합을 사용하여 안정적인 아웃바운드 IP를 제공합니다. 이렇게 하면 필요한 경우 수신 당사자가 IP를 기반으로 허용 목록에 추가할 수 있습니다. Azure 서비스와의 통신의 경우 서비스 엔드포인트 또는 프라이빗 엔드포인트와 같은 메커니즘을 사용하여 고정 IP에 의존하지 않도록 하고 안전하고 효율적인 연결을 보장합니다.</t>
         </is>
       </c>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2387,7 +2427,7 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking/app-gateway-with-service-endpoints</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking/nat-gateway-integration</t>
         </is>
       </c>
       <c r="I35" s="15" t="n"/>
@@ -2395,7 +2435,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>b123071a-5416-4415-a33e-a3ad2c2de732</t>
+          <t>cda3b54e-b2eb-403d-b9a2-582718d2ddb1</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2416,12 +2456,12 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>WAF가 우회되지 않도록 방지</t>
+          <t>Access Restrictions, Service Endpoints, 또는 Private Endpoints를 사용하여 인바운드 네트워크 액세스를 제어합니다.</t>
         </is>
       </c>
       <c r="D36" s="21" t="inlineStr">
         <is>
-          <t>WAF에 대한 액세스만 잠궈 WAF를 우회할 수 없는지 확인합니다.  액세스 제한, 서비스 엔드포인트 및 프라이빗 엔드포인트의 조합을 사용합니다.</t>
+          <t>App Service 액세스 제한, 서비스 엔드포인트 또는 프라이빗 엔드포인트를 구성하여 인바운드 네트워크 액세스를 제어합니다. 웹앱과 SCM(배포) 사이트 모두에 대해 적절한 제한을 설정하여 무단 액세스를 제한하고 보안을 강화해야 합니다.</t>
         </is>
       </c>
       <c r="E36" s="21" t="inlineStr">
@@ -2445,7 +2485,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>165c3acb-ef4a-4be1-b8d3-9fda47768314</t>
+          <t>0725769e-e669-41a4-a34a-c932223ece80</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2466,17 +2506,17 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>최소 TLS 정책을 1.2로 설정합니다.</t>
+          <t>App Service 앞에 WAF(Web Application Firewall)를 사용합니다.</t>
         </is>
       </c>
       <c r="D37" s="21" t="inlineStr">
         <is>
-          <t>App Service 구성에서 최소 TLS 정책을 1.2로 설정합니다.</t>
+          <t>Azure Application Gateway 또는 Azure Front Door를 사용하여 WAF(Web Application Firewall)를 배포하여 악의적인 인바운드 트래픽으로부터 App Service를 보호합니다. 보안 위협을 탐지하고 대응하기 위해 WAF 로그를 정기적으로 모니터링해야 합니다.</t>
         </is>
       </c>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2487,7 +2527,7 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/configure-ssl-bindings#enforce-tls-versions</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking/app-gateway-with-service-endpoints</t>
         </is>
       </c>
       <c r="I37" s="15" t="n"/>
@@ -2495,7 +2535,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>c115775c-2ea5-45b4-9ad4-8408ee72734b</t>
+          <t>b123071a-5416-4415-a33e-a3ad2c2de732</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2516,12 +2556,12 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>HTTPS만 사용</t>
+          <t>App Service에 대한 액세스를 보호하여 WAF를 우회할 수 없는지 확인합니다.</t>
         </is>
       </c>
       <c r="D38" s="21" t="inlineStr">
         <is>
-          <t>HTTPS만 사용하도록 App Service를 구성합니다.  이로 인해 App Service가 HTTP에서 HTTPS로 리디렉션됩니다.  코드 또는 WAF에서 HSTS(HTTP Strict Transport Security)를 사용하여 HTTPS를 통해서만 사이트에 액세스해야 함을 브라우저에 알리는 것이 좋습니다.</t>
+          <t>WAF(Web Application Firewall)가 우회되지 않도록 하려면 액세스 제한, 서비스 엔드포인트 및 프라이빗 엔드포인트를 사용하여 App Service에 대한 액세스를 잠급니다. 이렇게 하면 모든 트래픽이 WAF를 통해 라우팅되어 안전한 전면 보호 계층을 제공합니다.</t>
         </is>
       </c>
       <c r="E38" s="21" t="inlineStr">
@@ -2537,7 +2577,7 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/configure-ssl-bindings#enforce-https</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features#access-restrictions</t>
         </is>
       </c>
       <c r="I38" s="15" t="n"/>
@@ -2545,7 +2585,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>475ba18f-dbf5-490c-b65d-e8e03f9bcbd4</t>
+          <t>165c3acb-ef4a-4be1-b8d3-9fda47768314</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2566,17 +2606,17 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>와일드카드는 CORS에 사용할 수 없습니다.</t>
+          <t>App Service 구성에서 최소 TLS 정책을 1.2 이상, 가급적 1.3으로 설정합니다.</t>
         </is>
       </c>
       <c r="D39" s="21" t="inlineStr">
         <is>
-          <t>CORS 구성에서 와일드카드를 사용하면 모든 원본이 서비스에 액세스할 수 있으므로 CORS의 목적에 어긋나므로 사용하지 마세요. 특히 서비스에 액세스할 수 있을 것으로 예상되는 원본만 허용합니다.</t>
+          <t>더 강력한 암호화 프로토콜을 통해 보안을 강화하려면 TLS 1.3에 대한 기본 설정과 함께 최소 TLS 정책이 1.2 이상으로 설정되어 있는지 확인합니다. TLS 1.3은 추가적인 보안 개선 사항과 더 빠른 핸드셰이크 시간을 제공하여 이전 버전과 관련된 취약성을 줄입니다.</t>
         </is>
       </c>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2587,7 +2627,7 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/app-service-web-tutorial-rest-api</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-ssl-bindings#enforce-tls-versions</t>
         </is>
       </c>
       <c r="I39" s="15" t="n"/>
@@ -2595,7 +2635,7 @@
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>68266abc-a264-4f9a-89ae-d9c55d04c2c3</t>
+          <t>c115775c-2ea5-45b4-9ad4-8408ee72734b</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2616,12 +2656,12 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>원격 디버깅 끄기</t>
+          <t>HTTPS만 사용하고 HSTS(HTTP Strict Transport Security)를 사용하도록 설정하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D40" s="21" t="inlineStr">
         <is>
-          <t>원격 디버깅은 서비스에서 추가 포트를 열어 공격 노출 영역을 증가시키므로 프로덕션에서 켜면 안 됩니다. 서비스는 48시간 후에 자동으로 원격 디버깅을 설정합니다.</t>
+          <t>HTTPS 전용을 적용하도록 App Service를 구성하여 모든 HTTP 트래픽을 HTTPS로 자동으로 리디렉션합니다. 또한 코드에서 또는 WAF(Web Application Firewall)를 통해 HSTS(HTTP Strict Transport Security)를 구현하여 브라우저가 HTTPS를 통해서만 사이트에 액세스하도록 하여 다운그레이드 공격을 방지하여 보안을 강화할 수 있습니다.</t>
         </is>
       </c>
       <c r="E40" s="21" t="inlineStr">
@@ -2637,7 +2677,7 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/configure-common#configure-general-settings</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-ssl-bindings#enforce-https</t>
         </is>
       </c>
       <c r="I40" s="15" t="n"/>
@@ -2645,7 +2685,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>d9bd3baf-cda3-4b54-bb2e-b03dd9a25827</t>
+          <t>475ba18f-dbf5-490c-b65d-e8e03f9bcbd4</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2666,17 +2706,17 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>클라우드용 Defender 사용 - App Service용 Defender</t>
+          <t>CORS에 와일드카드를 사용하지 마십시오. 허용되는 원본을 명시적으로 지정합니다.</t>
         </is>
       </c>
       <c r="D41" s="21" t="inlineStr">
         <is>
-          <t>App Service용 Defender를 사용하도록 설정합니다.  이는 다른 위협 중에서도 알려진 악성 IP 주소에 대한 통신을 탐지합니다.  작업의 일부로 App Service용 Defender의 권장 사항을 검토합니다.</t>
+          <t>CORS 구성에서 와일드카드(*)를 사용하면 모든 원본에서 무제한 액세스가 허용되어 보안이 손상되므로 사용하지 마세요. 대신, 서비스에 액세스할 수 있는 신뢰할 수 있는 출처를 명시적으로 지정하여 제어된 액세스를 보장합니다.</t>
         </is>
       </c>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2687,7 +2727,7 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-app-service-introduction</t>
+          <t>https://learn.microsoft.com/azure/app-service/app-service-web-tutorial-rest-api</t>
         </is>
       </c>
       <c r="I41" s="15" t="n"/>
@@ -2695,7 +2735,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>18d2ddb1-0725-4769-be66-91a4834ac932</t>
+          <t>68266abc-a264-4f9a-89ae-d9c55d04c2c3</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2716,17 +2756,17 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>WAF VNet에서 DDOS 보호 표준 사용Enable DDOS Protection Standard on the WAF VNet</t>
+          <t>프로덕션 환경에서 원격 디버깅을 해제합니다.</t>
         </is>
       </c>
       <c r="D42" s="21" t="inlineStr">
         <is>
-          <t>Azure는 네트워크에서 DDoS 기본 보호를 제공하며, 정상적인 트래픽 패턴을 학습하고 비정상적인 동작을 감지할 수 있는 지능형 DDoS 표준 기능으로 개선할 수 있습니다. DDoS 표준은 Virtual Network에 적용되므로 Application Gateway 또는 NVA와 같은 앱 앞의 네트워크 리소스에 대해 구성해야 합니다.</t>
+          <t>원격 디버깅은 추가 포트를 열어 공격 표면을 증가시키므로 프로덕션에서 사용하도록 설정해서는 안 됩니다. App Service는 48시간 후에 원격 디버깅을 자동으로 해제하지만 보안 환경을 유지하기 위해 프로덕션에서 수동으로 사용하지 않도록 설정하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2737,7 +2777,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-common#configure-general-settings</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2745,7 +2785,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>223ece80-b123-4071-a541-6415833ea3ad</t>
+          <t>d9bd3baf-cda3-4b54-bb2e-b03dd9a25827</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2766,12 +2806,12 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Virtual Network를 통해 컨테이너 끌어오기</t>
+          <t>클라우드용 Defender 사용 - App Service용 Defender</t>
         </is>
       </c>
       <c r="D43" s="21" t="inlineStr">
         <is>
-          <t>Azure Container Registry에 저장된 이미지를 사용하는 경우 프라이빗 엔드포인트 및 앱 설정 'WEBSITE_PULL_IMAGE_OVER_VNET'를 사용하여 Azure Container Registry에서 가상 네트워크를 통해 끌어옵니다.</t>
+          <t>Defender for App Service를 사용하도록 설정합니다.  이는 다른 위협 중에서도 알려진 악성 IP 주소에 대한 통신을 탐지합니다.  작업의 일부로 Defender for App Service의 권장 사항을 검토합니다.</t>
         </is>
       </c>
       <c r="E43" s="21" t="inlineStr">
@@ -2787,7 +2827,7 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/configure-custom-container#use-an-image-from-a-network-protected-registry</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-app-service-introduction</t>
         </is>
       </c>
       <c r="I43" s="15" t="n"/>
@@ -2795,7 +2835,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>2c2de732-165c-43ac-aef4-abe1f8d39fda</t>
+          <t>18d2ddb1-0725-4769-be66-91a4834ac932</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2811,17 +2851,17 @@
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>침투 테스트</t>
+          <t>네트워크 보안</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>침투 테스트 수행</t>
+          <t>WAF VNet에서 DDOS 보호 표준 사용Enable DDOS Protection Standard on the WAF VNet</t>
         </is>
       </c>
       <c r="D44" s="21" t="inlineStr">
         <is>
-          <t>참여의 침투 테스트 규칙에 따라 웹 응용 프로그램에 대한 침투 테스트를 수행합니다.</t>
+          <t>Azure는 네트워크에서 DDoS 기본 보호를 제공하며, 정상적인 트래픽 패턴을 학습하고 비정상적인 동작을 감지할 수 있는 지능형 DDoS 표준 기능으로 개선할 수 있습니다. DDoS 표준은 Virtual Network에 적용되므로 Application Gateway 또는 NVA와 같은 앱 앞의 네트워크 리소스에 대해 구성해야 합니다.</t>
         </is>
       </c>
       <c r="E44" s="21" t="inlineStr">
@@ -2837,7 +2877,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/pen-testing</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2845,7 +2885,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>eb2eb03d-d9a2-4582-918d-2ddb10725769</t>
+          <t>223ece80-b123-4071-a541-6415833ea3ad</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2861,17 +2901,17 @@
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>취약성 관리</t>
+          <t>네트워크 보안</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>유효성이 검사된 코드 배포</t>
+          <t>Azure Container Registry에서 Virtual Network를 통해 컨테이너 이미지를 끌어옵니다.</t>
         </is>
       </c>
       <c r="D45" s="21" t="inlineStr">
         <is>
-          <t>DevSecOps 사례에 따라 취약성을 검증하고 검사한 신뢰할 수 있는 코드를 배포합니다.</t>
+          <t>Azure Container Registry에 저장된 이미지를 사용하는 경우 프라이빗 엔드포인트를 사용하고 앱 설정 'WEBSITE_PULL_IMAGE_OVER_VNET'를 구성하여 가상 네트워크를 통해 이미지를 가져와야 합니다. 이렇게 하면 App Service와 레지스트리 간의 보안 통신이 보장되어 공용 인터넷에 노출되지 않습니다.</t>
         </is>
       </c>
       <c r="E45" s="21" t="inlineStr">
@@ -2887,14 +2927,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/solution-ideas/articles/devsecops-in-azure</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-custom-container#use-an-image-from-a-network-protected-registry</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>19aed9c5-5d04-4c2c-9919-ca0b2c12159e</t>
+          <t>2c2de732-165c-43ac-aef4-abe1f8d39fda</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2910,22 +2950,22 @@
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>취약성 관리</t>
+          <t>침투 테스트</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>최신 플랫폼, 언어, 프로토콜 및 프레임워크 사용</t>
+          <t>웹 애플리케이션에 대한 침투 테스트를 수행합니다.</t>
         </is>
       </c>
       <c r="D46" s="21" t="inlineStr">
         <is>
-          <t>지원되는 플랫폼, 프로그래밍 언어, 프로토콜 및 프레임워크의 최신 버전을 사용합니다.</t>
+          <t>Azure의 침투 테스트 참여 규칙에 따라 웹 응용 프로그램에 대한 침투 테스트를 수행합니다. 이는 악용되기 전에 해결할 수 있는 취약성 및 보안 약점을 식별하는 데 도움이 됩니다.</t>
         </is>
       </c>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2936,7 +2976,7 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/overview-patch-os-runtime</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/pen-testing</t>
         </is>
       </c>
       <c r="I46" s="15" t="n"/>
@@ -2944,7 +2984,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>114b933d-f574-4ecc-ad9b-d3bafcda3b54</t>
+          <t>eb2eb03d-d9a2-4582-918d-2ddb10725769</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2953,83 +2993,248 @@
       <c r="P46" s="25" t="n"/>
     </row>
     <row r="47" ht="16.5" customHeight="1">
-      <c r="A47" s="21" t="n"/>
-      <c r="B47" s="21" t="n"/>
-      <c r="C47" s="21" t="n"/>
-      <c r="D47" s="21" t="n"/>
-      <c r="E47" s="21" t="n"/>
+      <c r="A47" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="B47" s="21" t="inlineStr">
+        <is>
+          <t>취약성 관리</t>
+        </is>
+      </c>
+      <c r="C47" s="21" t="inlineStr">
+        <is>
+          <t>검증되고 취약성을 검사한 코드를 배포합니다.</t>
+        </is>
+      </c>
+      <c r="D47" s="21" t="inlineStr">
+        <is>
+          <t>취약성을 검증하고 스캔한 신뢰할 수 있는 코드만 DevSecOps 사례에 따라 프로덕션에 배포되도록 합니다. 이렇게 하면 응용 프로그램 환경에 보안 취약성이 도입될 위험을 최소화할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="E47" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G47" s="21" t="n"/>
-      <c r="H47" s="15" t="n"/>
+      <c r="H47" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/solution-ideas/articles/devsecops-in-azure</t>
+        </is>
+      </c>
       <c r="I47" s="15" t="n"/>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
-      <c r="L47" s="25" t="n"/>
+      <c r="L47" s="25" t="inlineStr">
+        <is>
+          <t>19aed9c5-5d04-4c2c-9919-ca0b2c12159e</t>
+        </is>
+      </c>
       <c r="M47" s="25" t="n"/>
       <c r="N47" s="25" t="n"/>
       <c r="O47" s="25" t="n"/>
       <c r="P47" s="25" t="n"/>
     </row>
     <row r="48" ht="16.5" customHeight="1">
-      <c r="A48" s="21" t="n"/>
-      <c r="B48" s="21" t="n"/>
-      <c r="C48" s="21" t="n"/>
-      <c r="D48" s="21" t="n"/>
-      <c r="E48" s="21" t="n"/>
+      <c r="A48" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="B48" s="21" t="inlineStr">
+        <is>
+          <t>취약성 관리</t>
+        </is>
+      </c>
+      <c r="C48" s="21" t="inlineStr">
+        <is>
+          <t>최신 플랫폼, 언어, 프로토콜 및 프레임워크 사용</t>
+        </is>
+      </c>
+      <c r="D48" s="21" t="inlineStr">
+        <is>
+          <t>지원되는 플랫폼, 프로그래밍 언어, 프로토콜 및 프레임워크의 최신 버전이 사용되는지 확인합니다. 정기적인 업데이트는 보안 취약성의 위험을 완화하고 보안 패치와의 호환성을 보장합니다.</t>
+        </is>
+      </c>
+      <c r="E48" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G48" s="21" t="n"/>
-      <c r="H48" s="15" t="n"/>
+      <c r="H48" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/app-service/overview-patch-os-runtime</t>
+        </is>
+      </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
-      <c r="L48" s="25" t="n"/>
+      <c r="L48" s="25" t="inlineStr">
+        <is>
+          <t>114b933d-f574-4ecc-ad9b-d3bafcda3b54</t>
+        </is>
+      </c>
       <c r="M48" s="25" t="n"/>
       <c r="N48" s="25" t="n"/>
       <c r="O48" s="25" t="n"/>
       <c r="P48" s="25" t="n"/>
     </row>
     <row r="49" ht="16.5" customHeight="1">
-      <c r="A49" s="21" t="n"/>
-      <c r="B49" s="21" t="n"/>
-      <c r="C49" s="21" t="n"/>
-      <c r="D49" s="21" t="n"/>
-      <c r="E49" s="21" t="n"/>
+      <c r="A49" s="21" t="inlineStr">
+        <is>
+          <t>비용 관리</t>
+        </is>
+      </c>
+      <c r="B49" s="21" t="inlineStr">
+        <is>
+          <t>비용 모니터링</t>
+        </is>
+      </c>
+      <c r="C49" s="21" t="inlineStr">
+        <is>
+          <t>Azure Cost Management를 사용하여 App Service 비용을 모니터링하고 비용 경고를 만듭니다.</t>
+        </is>
+      </c>
+      <c r="D49" s="21" t="inlineStr">
+        <is>
+          <t>Azure Cost Management를 활용하여 App Service 비용을 추적하고 예측합니다. 예산 임계값에 대한 경고를 설정하여 초과 지출을 방지하고 리소스 사용률 추세에 따라 비용을 최적화합니다.</t>
+        </is>
+      </c>
+      <c r="E49" s="21" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="n"/>
+      <c r="H49" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/</t>
+        </is>
+      </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
-      <c r="L49" s="25" t="n"/>
+      <c r="L49" s="25" t="inlineStr">
+        <is>
+          <t>42eb48f0-28ff-497c-b2c0-a8fa1f989832</t>
+        </is>
+      </c>
       <c r="M49" s="25" t="n"/>
       <c r="N49" s="25" t="n"/>
       <c r="O49" s="25" t="n"/>
       <c r="P49" s="25" t="n"/>
     </row>
     <row r="50" ht="16.5" customHeight="1">
-      <c r="A50" s="21" t="n"/>
-      <c r="B50" s="21" t="n"/>
-      <c r="C50" s="21" t="n"/>
-      <c r="D50" s="21" t="n"/>
-      <c r="E50" s="21" t="n"/>
+      <c r="A50" s="21" t="inlineStr">
+        <is>
+          <t>비용 관리</t>
+        </is>
+      </c>
+      <c r="B50" s="21" t="inlineStr">
+        <is>
+          <t>비용 최적화</t>
+        </is>
+      </c>
+      <c r="C50" s="21" t="inlineStr">
+        <is>
+          <t>App Service 플랜에 대한 예약 인스턴스를 구매하여 장기 비용을 최적화합니다.</t>
+        </is>
+      </c>
+      <c r="D50" s="21" t="inlineStr">
+        <is>
+          <t>App Service를 예측 가능하고 꾸준하게 사용할 수 있는 경우 예약 인스턴스를 구매하면 장기적인 비용을 크게 줄일 수 있습니다. 종량제에 비해 저렴한 가격으로 1년 또는 3년을 약정할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="E50" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G50" s="21" t="n"/>
-      <c r="H50" s="15" t="n"/>
+      <c r="H50" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/</t>
+        </is>
+      </c>
       <c r="I50" s="15" t="n"/>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
-      <c r="L50" s="25" t="n"/>
+      <c r="L50" s="25" t="inlineStr">
+        <is>
+          <t>e489221b-487e-48a3-aaab-48e3d205ca12</t>
+        </is>
+      </c>
       <c r="M50" s="25" t="n"/>
       <c r="N50" s="25" t="n"/>
       <c r="O50" s="25" t="n"/>
       <c r="P50" s="25" t="n"/>
     </row>
     <row r="51" ht="16.5" customHeight="1">
-      <c r="A51" s="21" t="n"/>
-      <c r="B51" s="21" t="n"/>
-      <c r="C51" s="21" t="n"/>
-      <c r="D51" s="21" t="n"/>
-      <c r="E51" s="21" t="n"/>
+      <c r="A51" s="21" t="inlineStr">
+        <is>
+          <t>거버넌스 및 보안</t>
+        </is>
+      </c>
+      <c r="B51" s="21" t="inlineStr">
+        <is>
+          <t>컴플라이언스</t>
+        </is>
+      </c>
+      <c r="C51" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy를 적용하여 App Service 구성 간에 규정 준수를 적용합니다.</t>
+        </is>
+      </c>
+      <c r="D51" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy를 사용하여 App Service에 대한 보안, 규정 준수 및 거버넌스 구성을 적용합니다. 정책은 TLS 버전, 백업 구성 및 네트워크 제한과 같은 중요한 설정이 모든 App Service 인스턴스에 적용되도록 할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="E51" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G51" s="21" t="n"/>
-      <c r="H51" s="15" t="n"/>
+      <c r="H51" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
-      <c r="L51" s="25" t="n"/>
+      <c r="L51" s="25" t="inlineStr">
+        <is>
+          <t>361e886f-ca40-4ead-a8e9-1379c642ae9c</t>
+        </is>
+      </c>
       <c r="M51" s="25" t="n"/>
       <c r="N51" s="25" t="n"/>
       <c r="O51" s="25" t="n"/>
@@ -7046,7 +7251,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F47" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F52" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -7174,7 +7379,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>네트워크 토폴로지 및 연결성</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -7245,7 +7450,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>비용 거버넌스</t>
+          <t>비용 관리</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
